--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vwf-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vwf-Tnfrsf11b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>73.450124</v>
+        <v>89.35833500000001</v>
       </c>
       <c r="H2">
-        <v>220.350372</v>
+        <v>268.075005</v>
       </c>
       <c r="I2">
-        <v>0.9139420548774678</v>
+        <v>0.9624640326757887</v>
       </c>
       <c r="J2">
-        <v>0.9139420548774677</v>
+        <v>0.9624640326757889</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,7 +558,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N2">
         <v>0.247237</v>
@@ -570,16 +570,16 @@
         <v>0.04727005612861496</v>
       </c>
       <c r="Q2">
-        <v>6.053196102462666</v>
+        <v>7.364228890131668</v>
       </c>
       <c r="R2">
-        <v>54.478764922164</v>
+        <v>66.278060011185</v>
       </c>
       <c r="S2">
-        <v>0.04320209223235959</v>
+        <v>0.04549572884635764</v>
       </c>
       <c r="T2">
-        <v>0.04320209223235959</v>
+        <v>0.04549572884635765</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>73.450124</v>
+        <v>89.35833500000001</v>
       </c>
       <c r="H3">
-        <v>220.350372</v>
+        <v>268.075005</v>
       </c>
       <c r="I3">
-        <v>0.9139420548774678</v>
+        <v>0.9624640326757887</v>
       </c>
       <c r="J3">
-        <v>0.9139420548774677</v>
+        <v>0.9624640326757889</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -632,16 +632,16 @@
         <v>0.952729943871385</v>
       </c>
       <c r="Q3">
-        <v>122.002418766976</v>
+        <v>148.42633903504</v>
       </c>
       <c r="R3">
-        <v>1098.021768902784</v>
+        <v>1335.83705131536</v>
       </c>
       <c r="S3">
-        <v>0.8707399626451083</v>
+        <v>0.9169683038294312</v>
       </c>
       <c r="T3">
-        <v>0.8707399626451081</v>
+        <v>0.9169683038294313</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.5166010000000001</v>
       </c>
       <c r="I4">
-        <v>0.002142693816245315</v>
+        <v>0.001854741667334279</v>
       </c>
       <c r="J4">
-        <v>0.002142693816245315</v>
+        <v>0.001854741667334279</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N4">
         <v>0.247237</v>
@@ -700,10 +700,10 @@
         <v>0.127722881437</v>
       </c>
       <c r="S4">
-        <v>0.0001012852569603522</v>
+        <v>8.767374271897227E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001012852569603522</v>
+        <v>8.767374271897229E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.5166010000000001</v>
       </c>
       <c r="I5">
-        <v>0.002142693816245315</v>
+        <v>0.001854741667334279</v>
       </c>
       <c r="J5">
-        <v>0.002142693816245315</v>
+        <v>0.001854741667334279</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -762,10 +762,10 @@
         <v>2.574259978272</v>
       </c>
       <c r="S5">
-        <v>0.002041408559284963</v>
+        <v>0.001767067924615307</v>
       </c>
       <c r="T5">
-        <v>0.002041408559284963</v>
+        <v>0.001767067924615307</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.623825</v>
+        <v>1.963978</v>
       </c>
       <c r="H6">
-        <v>10.871475</v>
+        <v>5.891934</v>
       </c>
       <c r="I6">
-        <v>0.04509136113938133</v>
+        <v>0.02115368628977398</v>
       </c>
       <c r="J6">
-        <v>0.04509136113938133</v>
+        <v>0.02115368628977398</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,7 +806,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N6">
         <v>0.247237</v>
@@ -818,16 +818,16 @@
         <v>0.04727005612861496</v>
       </c>
       <c r="Q6">
-        <v>0.2986478738416666</v>
+        <v>0.1618560095953333</v>
       </c>
       <c r="R6">
-        <v>2.687830864575</v>
+        <v>1.456704086358</v>
       </c>
       <c r="S6">
-        <v>0.002131471171974203</v>
+        <v>0.0009999359382447286</v>
       </c>
       <c r="T6">
-        <v>0.002131471171974203</v>
+        <v>0.0009999359382447288</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.623825</v>
+        <v>1.963978</v>
       </c>
       <c r="H7">
-        <v>10.871475</v>
+        <v>5.891934</v>
       </c>
       <c r="I7">
-        <v>0.04509136113938133</v>
+        <v>0.02115368628977398</v>
       </c>
       <c r="J7">
-        <v>0.04509136113938133</v>
+        <v>0.02115368628977398</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -880,16 +880,16 @@
         <v>0.952729943871385</v>
       </c>
       <c r="Q7">
-        <v>6.019260296800001</v>
+        <v>3.262214593472</v>
       </c>
       <c r="R7">
-        <v>54.1733426712</v>
+        <v>29.359931341248</v>
       </c>
       <c r="S7">
-        <v>0.04295988996740713</v>
+        <v>0.02015375035152925</v>
       </c>
       <c r="T7">
-        <v>0.04295988996740712</v>
+        <v>0.02015375035152925</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2488803333333334</v>
+        <v>0.16825</v>
       </c>
       <c r="H8">
-        <v>0.7466410000000001</v>
+        <v>0.50475</v>
       </c>
       <c r="I8">
-        <v>0.003096825313259592</v>
+        <v>0.001812193272151965</v>
       </c>
       <c r="J8">
-        <v>0.003096825313259592</v>
+        <v>0.001812193272151965</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,7 +930,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N8">
         <v>0.247237</v>
@@ -942,16 +942,16 @@
         <v>0.04727005612861496</v>
       </c>
       <c r="Q8">
-        <v>0.02051080899077778</v>
+        <v>0.01386587508333333</v>
       </c>
       <c r="R8">
-        <v>0.184597280917</v>
+        <v>0.12479287575</v>
       </c>
       <c r="S8">
-        <v>0.0001463871063782965</v>
+        <v>8.566247769052179E-05</v>
       </c>
       <c r="T8">
-        <v>0.0001463871063782965</v>
+        <v>8.56624776905218E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2488803333333334</v>
+        <v>0.16825</v>
       </c>
       <c r="H9">
-        <v>0.7466410000000001</v>
+        <v>0.50475</v>
       </c>
       <c r="I9">
-        <v>0.003096825313259592</v>
+        <v>0.001812193272151965</v>
       </c>
       <c r="J9">
-        <v>0.003096825313259592</v>
+        <v>0.001812193272151965</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1004,16 +1004,16 @@
         <v>0.952729943871385</v>
       </c>
       <c r="Q9">
-        <v>0.4133962067946668</v>
+        <v>0.279467288</v>
       </c>
       <c r="R9">
-        <v>3.720565861152</v>
+        <v>2.515205592</v>
       </c>
       <c r="S9">
-        <v>0.002950438206881295</v>
+        <v>0.001726530794461443</v>
       </c>
       <c r="T9">
-        <v>0.002950438206881295</v>
+        <v>0.001726530794461443</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.871251333333333</v>
+        <v>1.180534666666667</v>
       </c>
       <c r="H10">
-        <v>8.613754</v>
+        <v>3.541604</v>
       </c>
       <c r="I10">
-        <v>0.03572706485364594</v>
+        <v>0.01271534609495094</v>
       </c>
       <c r="J10">
-        <v>0.03572706485364593</v>
+        <v>0.01271534609495094</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N10">
         <v>0.247237</v>
@@ -1066,16 +1066,16 @@
         <v>0.04727005612861496</v>
       </c>
       <c r="Q10">
-        <v>0.2366265219664444</v>
+        <v>0.09729061646088889</v>
       </c>
       <c r="R10">
-        <v>2.129638697698</v>
+        <v>0.875615548148</v>
       </c>
       <c r="S10">
-        <v>0.00168882036094251</v>
+        <v>0.000601055123603096</v>
       </c>
       <c r="T10">
-        <v>0.00168882036094251</v>
+        <v>0.0006010551236030962</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.871251333333333</v>
+        <v>1.180534666666667</v>
       </c>
       <c r="H11">
-        <v>8.613754</v>
+        <v>3.541604</v>
       </c>
       <c r="I11">
-        <v>0.03572706485364594</v>
+        <v>0.01271534609495094</v>
       </c>
       <c r="J11">
-        <v>0.03572706485364593</v>
+        <v>0.01271534609495094</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1128,16 +1128,16 @@
         <v>0.952729943871385</v>
       </c>
       <c r="Q11">
-        <v>4.769217374698667</v>
+        <v>1.960896414165334</v>
       </c>
       <c r="R11">
-        <v>42.922956372288</v>
+        <v>17.648067727488</v>
       </c>
       <c r="S11">
-        <v>0.03403824449270344</v>
+        <v>0.01211429097134785</v>
       </c>
       <c r="T11">
-        <v>0.03403824449270342</v>
+        <v>0.01211429097134785</v>
       </c>
     </row>
   </sheetData>
